--- a/public/template/H2R BVI Template.xlsx
+++ b/public/template/H2R BVI Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25428"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://medalsoftinc-my.sharepoint.com/personal/yuanyuan_wang_medalsoft_com/Documents/02项目/71西门子/02 西门子中国/03 GBS B&amp;B new system/01.项目分析/模板和主数据/Import Template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_AD4DA82427541F7ACA7EB8C8F84A136A6BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{298715B2-3D6B-4B2F-A766-975376087F0B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DFD5F6-6612-431A-A4A6-1ED85644A29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>BVI Month</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -58,39 +56,12 @@
   <si>
     <t>HR ADM Local</t>
   </si>
-  <si>
-    <t>HR ADM Intern</t>
-  </si>
-  <si>
-    <t>HR ADM Leasing</t>
-  </si>
-  <si>
-    <t>HR ADM Others</t>
-  </si>
-  <si>
-    <t>Payroll Local</t>
-  </si>
-  <si>
-    <t>Payroll Intern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payroll Leasing </t>
-  </si>
-  <si>
-    <t>Day1 Local</t>
-  </si>
-  <si>
-    <t>Day1 Leasing</t>
-  </si>
-  <si>
-    <t>Hire</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,7 +149,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -456,13 +427,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="3" customWidth="1"/>
@@ -473,7 +444,7 @@
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -493,7 +464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>202109</v>
       </c>
@@ -511,172 +482,26 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>202109</v>
       </c>
       <c r="B3" s="1">
-        <v>4611</v>
+        <v>5547</v>
       </c>
       <c r="C3" s="1">
-        <v>82931</v>
+        <v>81611018</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="1">
-        <v>202109</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4611</v>
-      </c>
-      <c r="C4" s="1">
-        <v>82931</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="1">
-        <v>202109</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4611</v>
-      </c>
-      <c r="C5" s="1">
-        <v>82931</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="1">
-        <v>202109</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4611</v>
-      </c>
-      <c r="C6" s="1">
-        <v>82931</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="1">
-        <v>202109</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4611</v>
-      </c>
-      <c r="C7" s="1">
-        <v>82931</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="1">
-        <v>202109</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4611</v>
-      </c>
-      <c r="C8" s="1">
-        <v>82931</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="1">
-        <v>202109</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4611</v>
-      </c>
-      <c r="C9" s="1">
-        <v>82931</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="1">
-        <v>202109</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4611</v>
-      </c>
-      <c r="C10" s="1">
-        <v>82931</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="1">
-        <v>202109</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5547</v>
-      </c>
-      <c r="C11" s="1">
-        <v>81611018</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="4"/>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -686,12 +511,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -860,19 +682,46 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52647EC7-C88C-4E9B-93E0-CE39F6DD697A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08BDBED3-3A9A-42E1-9FE0-28B9C116D620}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8ABC693-D044-458D-B61B-002A3CC34463}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8ABC693-D044-458D-B61B-002A3CC34463}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e6d8e88-43bd-44c5-af4a-b3f409258f8a"/>
+    <ds:schemaRef ds:uri="c7e0163d-619a-4037-a3c2-ba840964746c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08BDBED3-3A9A-42E1-9FE0-28B9C116D620}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52647EC7-C88C-4E9B-93E0-CE39F6DD697A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/public/template/H2R BVI Template.xlsx
+++ b/public/template/H2R BVI Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0047p6c\Desktop\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DFD5F6-6612-431A-A4A6-1ED85644A29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93F1815-1C68-4740-8F1F-365AC5CCF801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26355" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Cost center</t>
   </si>
   <si>
-    <t xml:space="preserve"> Employee Type</t>
-  </si>
-  <si>
     <t>Action type</t>
   </si>
   <si>
@@ -56,16 +53,19 @@
   <si>
     <t>HR ADM Local</t>
   </si>
+  <si>
+    <t>Employee Type</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -73,22 +73,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -133,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -144,12 +137,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -427,24 +417,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A4" sqref="A4:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -455,16 +445,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1">
         <v>202109</v>
       </c>
@@ -475,14 +465,14 @@
         <v>82931</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1">
         <v>1059</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1">
         <v>202109</v>
       </c>
@@ -493,15 +483,12 @@
         <v>81611018</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -511,9 +498,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -682,19 +672,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08BDBED3-3A9A-42E1-9FE0-28B9C116D620}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52647EC7-C88C-4E9B-93E0-CE39F6DD697A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -719,9 +705,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52647EC7-C88C-4E9B-93E0-CE39F6DD697A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08BDBED3-3A9A-42E1-9FE0-28B9C116D620}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>